--- a/readable_data_tables/africa.xlsx
+++ b/readable_data_tables/africa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\BCS - Massachusetts Institute of Technology\Fall 2020\9.921 TedLab\here_there_way_over_there\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6817BC-2E71-464D-9137-12D961EBB7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0B9FB-ED37-42B7-A1F8-BF645F9CF19C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3664,7 +3664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3787,15 +3787,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3805,31 +3796,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3841,16 +3835,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4134,10 +4137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="D361" sqref="D361"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4148,9 +4151,10 @@
     <col min="4" max="4" width="29.44140625" customWidth="1"/>
     <col min="5" max="6" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4172,18 +4176,19 @@
       <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -4196,13 +4201,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
@@ -4211,13 +4216,13 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4251,7 +4256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4274,17 +4279,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -4297,13 +4302,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
@@ -4314,13 +4319,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4331,30 +4336,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E11" s="50" t="s">
@@ -4367,56 +4372,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="51"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D15" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E15" s="50" t="s">
@@ -4429,56 +4434,56 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="54"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -4491,9 +4496,9 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="13" t="s">
         <v>40</v>
       </c>
@@ -4508,9 +4513,9 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="13" t="s">
         <v>41</v>
       </c>
@@ -4521,9 +4526,9 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="10" t="s">
         <v>42</v>
       </c>
@@ -4534,13 +4539,13 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -4553,9 +4558,9 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="13" t="s">
         <v>44</v>
       </c>
@@ -4570,9 +4575,9 @@
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="13" t="s">
         <v>45</v>
       </c>
@@ -4583,9 +4588,9 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="13" t="s">
         <v>46</v>
       </c>
@@ -4596,9 +4601,9 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="10" t="s">
         <v>47</v>
       </c>
@@ -4632,13 +4637,13 @@
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="14" t="s">
@@ -4655,40 +4660,40 @@
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -4928,7 +4933,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f t="shared" ref="C43:D62" si="0">IF(B43="SI","SI","")</f>
+        <f t="shared" ref="C43:D59" si="0">IF(B43="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D43" s="3" t="str">
@@ -4949,13 +4954,13 @@
       <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D44" s="47" t="s">
+      <c r="C44" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D44" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E44" s="13" t="s">
@@ -4968,9 +4973,9 @@
       <c r="A45" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="13" t="s">
         <v>76</v>
       </c>
@@ -4985,9 +4990,9 @@
       <c r="A46" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="10" t="s">
         <v>77</v>
       </c>
@@ -5002,13 +5007,13 @@
       <c r="A47" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D47" s="47" t="s">
+      <c r="C47" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D47" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E47" s="13" t="s">
@@ -5021,9 +5026,9 @@
       <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="13" t="s">
         <v>79</v>
       </c>
@@ -5038,9 +5043,9 @@
       <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
       <c r="E49" s="10" t="s">
         <v>80</v>
       </c>
@@ -5055,14 +5060,14 @@
       <c r="A50" t="s">
         <v>81</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="47" t="str">
+      <c r="C50" s="44" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
-      <c r="D50" s="47" t="str">
+      <c r="D50" s="44" t="str">
         <f t="shared" si="0"/>
         <v>SI</v>
       </c>
@@ -5076,9 +5081,9 @@
       <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="10" t="s">
         <v>83</v>
       </c>
@@ -5210,13 +5215,13 @@
       <c r="A57" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D57" s="47" t="s">
+      <c r="C57" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -5233,9 +5238,9 @@
       <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="10" t="s">
         <v>97</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f t="shared" ref="C63:D82" si="1">IF(B66="SI","SI","")</f>
+        <f t="shared" ref="C66:D73" si="1">IF(B66="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D66" s="3" t="str">
@@ -5438,13 +5443,13 @@
       <c r="A67" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D67" s="47" t="s">
+      <c r="C67" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E67" s="13" t="s">
@@ -5461,9 +5466,9 @@
       <c r="A68" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
       <c r="E68" s="10" t="s">
         <v>119</v>
       </c>
@@ -5572,14 +5577,14 @@
       <c r="A73" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="47" t="str">
+      <c r="C73" s="44" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
-      <c r="D73" s="47" t="str">
+      <c r="D73" s="44" t="str">
         <f t="shared" si="1"/>
         <v>SI</v>
       </c>
@@ -5597,9 +5602,9 @@
       <c r="A74" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="13" t="s">
         <v>131</v>
       </c>
@@ -5614,9 +5619,9 @@
       <c r="A75" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="10" t="s">
@@ -5627,13 +5632,13 @@
       <c r="A76" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D76" s="47" t="s">
+      <c r="C76" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D76" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E76" s="13" t="s">
@@ -5650,9 +5655,9 @@
       <c r="A77" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="13" t="s">
         <v>135</v>
       </c>
@@ -5667,9 +5672,9 @@
       <c r="A78" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
       <c r="E78" s="13" t="s">
         <v>136</v>
       </c>
@@ -5682,9 +5687,9 @@
       <c r="A79" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
       <c r="E79" s="11" t="s">
         <v>137</v>
       </c>
@@ -5697,13 +5702,13 @@
       <c r="A80" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C80" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D80" s="47" t="s">
+      <c r="C80" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D80" s="44" t="s">
         <v>645</v>
       </c>
       <c r="E80" s="27" t="s">
@@ -5720,9 +5725,9 @@
       <c r="A81" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
       <c r="E81" s="4" t="s">
         <v>141</v>
       </c>
@@ -5737,13 +5742,13 @@
       <c r="A82" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D82" s="47" t="s">
+      <c r="C82" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D82" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E82" s="27" t="s">
@@ -5760,9 +5765,9 @@
       <c r="A83" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
       <c r="E83" s="4" t="s">
         <v>145</v>
       </c>
@@ -5777,13 +5782,13 @@
       <c r="A84" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C84" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D84" s="47" t="s">
+      <c r="C84" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D84" s="44" t="s">
         <v>646</v>
       </c>
       <c r="E84" s="13" t="s">
@@ -5800,9 +5805,9 @@
       <c r="A85" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
       <c r="E85" s="11" t="s">
         <v>149</v>
       </c>
@@ -5817,14 +5822,14 @@
       <c r="A86" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="47" t="str">
-        <f t="shared" ref="C84:D103" si="2">IF(B86="SI","SI","")</f>
+      <c r="C86" s="44" t="str">
+        <f t="shared" ref="C86:D92" si="2">IF(B86="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D86" s="47" t="str">
+      <c r="D86" s="44" t="str">
         <f t="shared" si="2"/>
         <v>SI</v>
       </c>
@@ -5842,26 +5847,26 @@
       <c r="A87" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F87" s="51"/>
-      <c r="G87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="47" t="s">
+      <c r="B88" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D88" s="47" t="s">
+      <c r="C88" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D88" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E88" s="50" t="s">
@@ -5878,11 +5883,11 @@
       <c r="A89" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="10" t="s">
         <v>157</v>
       </c>
@@ -5891,13 +5896,13 @@
       <c r="A90" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B90" s="47" t="s">
+      <c r="B90" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D90" s="47" t="s">
+      <c r="C90" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D90" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E90" s="13" t="s">
@@ -5914,16 +5919,16 @@
       <c r="A91" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
       <c r="E91" s="10" t="s">
         <v>159</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G91" s="51"/>
+      <c r="G91" s="52"/>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="24" t="s">
@@ -6000,22 +6005,22 @@
       <c r="A95" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D95" s="44" t="s">
         <v>647</v>
       </c>
-      <c r="E95" s="58" t="s">
+      <c r="E95" s="55" t="s">
         <v>167</v>
       </c>
       <c r="F95" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="58" t="s">
+      <c r="G95" s="55" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6023,37 +6028,37 @@
       <c r="A96" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="62"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="56"/>
       <c r="F96" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="62"/>
+      <c r="G96" s="56"/>
     </row>
     <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="59"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="57"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="59"/>
+      <c r="G97" s="57"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="47" t="s">
+      <c r="C98" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="47" t="s">
+      <c r="D98" s="44" t="s">
         <v>648</v>
       </c>
       <c r="E98" s="50" t="s">
@@ -6070,35 +6075,35 @@
       <c r="A99" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="51"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="52"/>
       <c r="F99" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="51"/>
+      <c r="G99" s="52"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D100" s="47" t="s">
+      <c r="C100" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D100" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="E100" s="58" t="s">
+      <c r="E100" s="55" t="s">
         <v>176</v>
       </c>
       <c r="F100" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G100" s="58" t="s">
+      <c r="G100" s="55" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6106,39 +6111,39 @@
       <c r="A101" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
-      <c r="E101" s="62"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="56"/>
       <c r="F101" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="G101" s="62"/>
+      <c r="G101" s="56"/>
     </row>
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="59"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="57"/>
       <c r="F102" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G102" s="59"/>
+      <c r="G102" s="57"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C103" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D103" s="47" t="s">
+      <c r="C103" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D103" s="44" t="s">
         <v>649</v>
       </c>
       <c r="E103" s="50" t="s">
@@ -6155,24 +6160,24 @@
       <c r="A104" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B105" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D105" s="47" t="s">
+      <c r="C105" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D105" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E105" s="50" t="s">
@@ -6189,50 +6194,50 @@
       <c r="A106" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49"/>
-      <c r="E106" s="54"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="51"/>
       <c r="F106" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="54"/>
+      <c r="G106" s="51"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="51"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="52"/>
       <c r="F107" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="G107" s="51"/>
+      <c r="G107" s="52"/>
     </row>
     <row r="108" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="47" t="str">
-        <f t="shared" ref="C105:D124" si="3">IF(B108="SI","SI","")</f>
+      <c r="C108" s="44" t="str">
+        <f t="shared" ref="C108:D123" si="3">IF(B108="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D108" s="47" t="str">
+      <c r="D108" s="44" t="str">
         <f t="shared" si="3"/>
         <v>SI</v>
       </c>
-      <c r="E108" s="55" t="s">
+      <c r="E108" s="53" t="s">
         <v>189</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="53" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6240,26 +6245,26 @@
       <c r="A109" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="57"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="54"/>
       <c r="F109" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="G109" s="57"/>
+      <c r="G109" s="54"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D110" s="47" t="s">
+      <c r="C110" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D110" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E110" s="50" t="s">
@@ -6276,35 +6281,35 @@
       <c r="A111" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="51"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="52"/>
       <c r="F111" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G111" s="51"/>
+      <c r="G111" s="52"/>
     </row>
     <row r="112" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D112" s="47" t="s">
+      <c r="C112" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D112" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="E112" s="58" t="s">
+      <c r="E112" s="55" t="s">
         <v>196</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G112" s="58" t="s">
+      <c r="G112" s="55" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6312,35 +6317,35 @@
       <c r="A113" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="59"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="57"/>
       <c r="F113" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G113" s="59"/>
+      <c r="G113" s="57"/>
     </row>
     <row r="114" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B114" s="47" t="s">
+      <c r="B114" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D114" s="47" t="s">
+      <c r="C114" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D114" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="E114" s="58" t="s">
+      <c r="E114" s="55" t="s">
         <v>200</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="G114" s="58" t="s">
+      <c r="G114" s="55" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6348,26 +6353,26 @@
       <c r="A115" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="59"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="57"/>
       <c r="F115" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G115" s="59"/>
+      <c r="G115" s="57"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D116" s="47" t="s">
+      <c r="C116" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D116" s="44" t="s">
         <v>637</v>
       </c>
       <c r="E116" s="50" t="s">
@@ -6376,7 +6381,7 @@
       <c r="F116" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="53" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6384,14 +6389,14 @@
       <c r="A117" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="51"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="52"/>
       <c r="F117" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G117" s="57"/>
+      <c r="G117" s="54"/>
     </row>
     <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
@@ -6585,14 +6590,14 @@
       <c r="A126" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C126" s="47" t="str">
-        <f t="shared" ref="C125:D144" si="4">IF(B126="SI","SI","")</f>
+      <c r="C126" s="44" t="str">
+        <f t="shared" ref="C126:D134" si="4">IF(B126="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D126" s="47" t="str">
+      <c r="D126" s="44" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
@@ -6610,26 +6615,26 @@
       <c r="A127" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="51"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="52"/>
       <c r="F127" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G127" s="51"/>
+      <c r="G127" s="52"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B128" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D128" s="47" t="s">
+      <c r="C128" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D128" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E128" s="50" t="s">
@@ -6646,26 +6651,26 @@
       <c r="A129" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="51"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="52"/>
       <c r="F129" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="G129" s="51"/>
+      <c r="G129" s="52"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D130" s="47" t="s">
+      <c r="C130" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D130" s="44" t="s">
         <v>636</v>
       </c>
       <c r="E130" s="50" t="s">
@@ -6682,35 +6687,35 @@
       <c r="A131" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="51"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="52"/>
       <c r="F131" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G131" s="51"/>
+      <c r="G131" s="52"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B132" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D132" s="47" t="s">
+      <c r="C132" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D132" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="E132" s="58" t="s">
+      <c r="E132" s="55" t="s">
         <v>232</v>
       </c>
       <c r="F132" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="G132" s="58" t="s">
+      <c r="G132" s="55" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6718,27 +6723,27 @@
       <c r="A133" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="59"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="57"/>
       <c r="F133" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G133" s="59"/>
+      <c r="G133" s="57"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C134" s="47" t="str">
+      <c r="C134" s="44" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
-      <c r="D134" s="47" t="str">
+      <c r="D134" s="44" t="str">
         <f t="shared" si="4"/>
         <v>SI</v>
       </c>
@@ -6756,9 +6761,9 @@
       <c r="A135" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="46"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="13" t="s">
         <v>237</v>
       </c>
@@ -6773,9 +6778,9 @@
       <c r="A136" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B136" s="49"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="49"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="13" t="s">
@@ -6786,9 +6791,9 @@
       <c r="A137" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
       <c r="G137" s="10" t="s">
@@ -6799,13 +6804,13 @@
       <c r="A138" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B138" s="47" t="s">
+      <c r="B138" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C138" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D138" s="47" t="s">
+      <c r="C138" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D138" s="44" t="s">
         <v>652</v>
       </c>
       <c r="E138" s="50" t="s">
@@ -6822,11 +6827,11 @@
       <c r="A139" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="48"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="52"/>
+      <c r="F139" s="52"/>
       <c r="G139" s="10" t="s">
         <v>243</v>
       </c>
@@ -6835,19 +6840,19 @@
       <c r="A140" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B140" s="47" t="s">
+      <c r="B140" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C140" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D140" s="47" t="s">
+      <c r="C140" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D140" s="44" t="s">
         <v>653</v>
       </c>
-      <c r="E140" s="58" t="s">
+      <c r="E140" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="F140" s="58" t="s">
+      <c r="F140" s="55" t="s">
         <v>244</v>
       </c>
       <c r="G140" s="27" t="s">
@@ -6858,11 +6863,11 @@
       <c r="A141" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B141" s="48"/>
-      <c r="C141" s="48"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="4" t="s">
         <v>246</v>
       </c>
@@ -6871,19 +6876,19 @@
       <c r="A142" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B142" s="47" t="s">
+      <c r="B142" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C142" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D142" s="47" t="s">
+      <c r="C142" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D142" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="E142" s="58" t="s">
+      <c r="E142" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="F142" s="58" t="s">
+      <c r="F142" s="55" t="s">
         <v>248</v>
       </c>
       <c r="G142" s="27" t="s">
@@ -6894,11 +6899,11 @@
       <c r="A143" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B143" s="48"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
       <c r="G143" s="4" t="s">
         <v>249</v>
       </c>
@@ -6907,19 +6912,19 @@
       <c r="A144" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B144" s="47" t="s">
+      <c r="B144" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C144" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D144" s="47" t="s">
+      <c r="C144" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D144" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="E144" s="58" t="s">
+      <c r="E144" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="F144" s="58" t="s">
+      <c r="F144" s="55" t="s">
         <v>250</v>
       </c>
       <c r="G144" s="27" t="s">
@@ -6930,11 +6935,11 @@
       <c r="A145" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="48"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="57"/>
       <c r="G145" s="4" t="s">
         <v>251</v>
       </c>
@@ -6943,13 +6948,13 @@
       <c r="A146" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B146" s="47" t="s">
+      <c r="B146" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C146" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D146" s="47" t="s">
+      <c r="C146" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D146" s="44" t="s">
         <v>656</v>
       </c>
       <c r="E146" s="50" t="s">
@@ -6966,11 +6971,11 @@
       <c r="A147" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B147" s="48"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="52"/>
       <c r="G147" s="10" t="s">
         <v>254</v>
       </c>
@@ -6979,19 +6984,19 @@
       <c r="A148" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B148" s="47" t="s">
+      <c r="B148" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C148" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D148" s="47" t="s">
+      <c r="C148" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D148" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="E148" s="58" t="s">
+      <c r="E148" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="F148" s="58" t="s">
+      <c r="F148" s="55" t="s">
         <v>255</v>
       </c>
       <c r="G148" s="27" t="s">
@@ -7002,11 +7007,11 @@
       <c r="A149" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="59"/>
-      <c r="F149" s="59"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
       <c r="G149" s="4" t="s">
         <v>256</v>
       </c>
@@ -7015,19 +7020,19 @@
       <c r="A150" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B150" s="47" t="s">
+      <c r="B150" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="C150" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D150" s="47" t="s">
+      <c r="C150" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D150" s="44" t="s">
         <v>658</v>
       </c>
-      <c r="E150" s="58" t="s">
+      <c r="E150" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="F150" s="58" t="s">
+      <c r="F150" s="55" t="s">
         <v>258</v>
       </c>
       <c r="G150" s="27" t="s">
@@ -7038,11 +7043,11 @@
       <c r="A151" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="59"/>
-      <c r="F151" s="59"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="57"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="4" t="s">
         <v>259</v>
       </c>
@@ -7051,19 +7056,19 @@
       <c r="A152" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B152" s="47" t="s">
+      <c r="B152" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D152" s="47" t="s">
+      <c r="C152" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D152" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="E152" s="58" t="s">
+      <c r="E152" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="F152" s="58" t="s">
+      <c r="F152" s="55" t="s">
         <v>261</v>
       </c>
       <c r="G152" s="27" t="s">
@@ -7074,11 +7079,11 @@
       <c r="A153" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B153" s="48"/>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="59"/>
-      <c r="F153" s="59"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="45"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="4" t="s">
         <v>262</v>
       </c>
@@ -7091,7 +7096,7 @@
         <v>5</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f t="shared" ref="C146:D165" si="5">IF(B154="SI","SI","")</f>
+        <f t="shared" ref="C154:D159" si="5">IF(B154="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D154" s="3" t="str">
@@ -7135,13 +7140,13 @@
       <c r="A156" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B156" s="47" t="s">
+      <c r="B156" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C156" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D156" s="47" t="s">
+      <c r="C156" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D156" s="44" t="s">
         <v>634</v>
       </c>
       <c r="E156" s="27" t="s">
@@ -7158,9 +7163,9 @@
       <c r="A157" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="48"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
       <c r="E157" s="4" t="s">
         <v>267</v>
       </c>
@@ -7198,14 +7203,14 @@
       <c r="A159" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B159" s="47" t="s">
+      <c r="B159" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C159" s="47" t="str">
+      <c r="C159" s="44" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
-      <c r="D159" s="47" t="str">
+      <c r="D159" s="44" t="str">
         <f t="shared" si="5"/>
         <v>SI</v>
       </c>
@@ -7223,9 +7228,9 @@
       <c r="A160" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
       <c r="E160" s="10" t="s">
         <v>271</v>
       </c>
@@ -7240,13 +7245,13 @@
       <c r="A161" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B161" s="47" t="s">
+      <c r="B161" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D161" s="47" t="s">
+      <c r="C161" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D161" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E161" s="13" t="s">
@@ -7263,9 +7268,9 @@
       <c r="A162" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B162" s="48"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48"/>
+      <c r="B162" s="45"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
       <c r="E162" s="10" t="s">
         <v>272</v>
       </c>
@@ -7280,13 +7285,13 @@
       <c r="A163" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B163" s="47" t="s">
+      <c r="B163" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C163" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D163" s="47" t="s">
+      <c r="C163" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D163" s="44" t="s">
         <v>660</v>
       </c>
       <c r="E163" s="27" t="s">
@@ -7303,9 +7308,9 @@
       <c r="A164" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B164" s="49"/>
-      <c r="C164" s="49"/>
-      <c r="D164" s="49"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="46"/>
       <c r="E164" s="27" t="s">
         <v>274</v>
       </c>
@@ -7320,9 +7325,9 @@
       <c r="A165" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B165" s="49"/>
-      <c r="C165" s="49"/>
-      <c r="D165" s="49"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="46"/>
       <c r="E165" s="27" t="s">
         <v>275</v>
       </c>
@@ -7337,9 +7342,9 @@
       <c r="A166" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
+      <c r="B166" s="45"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="45"/>
       <c r="E166" s="4" t="s">
         <v>276</v>
       </c>
@@ -7354,13 +7359,13 @@
       <c r="A167" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B167" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C167" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D167" s="47" t="s">
+      <c r="C167" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D167" s="44" t="s">
         <v>634</v>
       </c>
       <c r="E167" s="27" t="s">
@@ -7377,9 +7382,9 @@
       <c r="A168" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="46"/>
       <c r="E168" s="27" t="s">
         <v>278</v>
       </c>
@@ -7394,9 +7399,9 @@
       <c r="A169" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B169" s="49"/>
-      <c r="C169" s="49"/>
-      <c r="D169" s="49"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="46"/>
       <c r="E169" s="27" t="s">
         <v>279</v>
       </c>
@@ -7411,9 +7416,9 @@
       <c r="A170" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B170" s="49"/>
-      <c r="C170" s="49"/>
-      <c r="D170" s="49"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46"/>
       <c r="E170" s="27" t="s">
         <v>280</v>
       </c>
@@ -7428,9 +7433,9 @@
       <c r="A171" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B171" s="49"/>
-      <c r="C171" s="49"/>
-      <c r="D171" s="49"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
       <c r="E171" s="27" t="s">
         <v>281</v>
       </c>
@@ -7445,9 +7450,9 @@
       <c r="A172" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
+      <c r="B172" s="45"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="45"/>
       <c r="E172" s="4" t="s">
         <v>282</v>
       </c>
@@ -7462,13 +7467,13 @@
       <c r="A173" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B173" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="C173" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D173" s="47" t="s">
+      <c r="C173" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D173" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E173" s="13" t="s">
@@ -7485,9 +7490,9 @@
       <c r="A174" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B174" s="49"/>
-      <c r="C174" s="49"/>
-      <c r="D174" s="49"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="46"/>
       <c r="E174" s="13" t="s">
         <v>284</v>
       </c>
@@ -7502,9 +7507,9 @@
       <c r="A175" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
+      <c r="B175" s="45"/>
+      <c r="C175" s="45"/>
+      <c r="D175" s="45"/>
       <c r="E175" s="10" t="s">
         <v>285</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f t="shared" ref="C167:D186" si="6">IF(B176="SI","SI","")</f>
+        <f t="shared" ref="C176:D185" si="6">IF(B176="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D176" s="3" t="str">
@@ -7590,13 +7595,13 @@
       <c r="A179" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B179" s="47" t="s">
+      <c r="B179" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C179" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D179" s="47" t="s">
+      <c r="C179" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D179" s="44" t="s">
         <v>637</v>
       </c>
       <c r="E179" s="27" t="s">
@@ -7613,9 +7618,9 @@
       <c r="A180" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
       <c r="E180" s="4" t="s">
         <v>294</v>
       </c>
@@ -7678,13 +7683,13 @@
       <c r="A183" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B183" s="47" t="s">
+      <c r="B183" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D183" s="47" t="s">
+      <c r="C183" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D183" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E183" s="13" t="s">
@@ -7701,9 +7706,9 @@
       <c r="A184" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B184" s="48"/>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="45"/>
+      <c r="D184" s="45"/>
       <c r="E184" s="11" t="s">
         <v>301</v>
       </c>
@@ -7718,14 +7723,14 @@
       <c r="A185" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B185" s="47" t="s">
+      <c r="B185" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C185" s="47" t="str">
+      <c r="C185" s="44" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
-      <c r="D185" s="47" t="str">
+      <c r="D185" s="44" t="str">
         <f t="shared" si="6"/>
         <v>SI</v>
       </c>
@@ -7743,9 +7748,9 @@
       <c r="A186" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B186" s="49"/>
-      <c r="C186" s="49"/>
-      <c r="D186" s="49"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
       <c r="E186" s="13" t="s">
         <v>305</v>
       </c>
@@ -7760,9 +7765,9 @@
       <c r="A187" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B187" s="48"/>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="45"/>
+      <c r="D187" s="45"/>
       <c r="E187" s="10" t="s">
         <v>306</v>
       </c>
@@ -7846,14 +7851,14 @@
       <c r="A191" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B191" s="47" t="s">
+      <c r="B191" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C191" s="47" t="str">
-        <f t="shared" ref="C188:D207" si="7">IF(B191="SI","SI","")</f>
+      <c r="C191" s="44" t="str">
+        <f t="shared" ref="C191:D203" si="7">IF(B191="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D191" s="47" t="str">
+      <c r="D191" s="44" t="str">
         <f t="shared" si="7"/>
         <v>SI</v>
       </c>
@@ -7871,26 +7876,26 @@
       <c r="A192" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48"/>
-      <c r="E192" s="51"/>
+      <c r="B192" s="45"/>
+      <c r="C192" s="45"/>
+      <c r="D192" s="45"/>
+      <c r="E192" s="52"/>
       <c r="F192" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="G192" s="51"/>
+      <c r="G192" s="52"/>
     </row>
     <row r="193" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A193" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B193" s="47" t="s">
+      <c r="B193" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C193" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D193" s="47" t="s">
+      <c r="C193" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D193" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E193" s="13" t="s">
@@ -7907,9 +7912,9 @@
       <c r="A194" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B194" s="49"/>
-      <c r="C194" s="49"/>
-      <c r="D194" s="49"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
       <c r="E194" s="13" t="s">
         <v>321</v>
       </c>
@@ -7924,9 +7929,9 @@
       <c r="A195" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B195" s="49"/>
-      <c r="C195" s="49"/>
-      <c r="D195" s="49"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
       <c r="E195" s="13" t="s">
         <v>322</v>
       </c>
@@ -7939,9 +7944,9 @@
       <c r="A196" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B196" s="48"/>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
+      <c r="B196" s="45"/>
+      <c r="C196" s="45"/>
+      <c r="D196" s="45"/>
       <c r="E196" s="33"/>
       <c r="F196" s="10" t="s">
         <v>326</v>
@@ -7952,13 +7957,13 @@
       <c r="A197" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B197" s="47" t="s">
+      <c r="B197" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C197" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D197" s="47" t="s">
+      <c r="C197" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D197" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E197" s="13" t="s">
@@ -7975,9 +7980,9 @@
       <c r="A198" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B198" s="48"/>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48"/>
+      <c r="B198" s="45"/>
+      <c r="C198" s="45"/>
+      <c r="D198" s="45"/>
       <c r="E198" s="10" t="s">
         <v>330</v>
       </c>
@@ -8111,13 +8116,13 @@
       <c r="A204" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B204" s="47" t="s">
+      <c r="B204" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C204" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D204" s="47" t="s">
+      <c r="C204" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D204" s="44" t="s">
         <v>664</v>
       </c>
       <c r="E204" s="13" t="s">
@@ -8134,9 +8139,9 @@
       <c r="A205" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B205" s="48"/>
-      <c r="C205" s="48"/>
-      <c r="D205" s="48"/>
+      <c r="B205" s="45"/>
+      <c r="C205" s="45"/>
+      <c r="D205" s="45"/>
       <c r="E205" s="10" t="s">
         <v>346</v>
       </c>
@@ -8151,13 +8156,13 @@
       <c r="A206" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B206" s="47" t="s">
+      <c r="B206" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C206" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D206" s="47" t="s">
+      <c r="C206" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D206" s="44" t="s">
         <v>665</v>
       </c>
       <c r="E206" s="27" t="s">
@@ -8174,9 +8179,9 @@
       <c r="A207" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B207" s="48"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48"/>
+      <c r="B207" s="45"/>
+      <c r="C207" s="45"/>
+      <c r="D207" s="45"/>
       <c r="E207" s="4" t="s">
         <v>350</v>
       </c>
@@ -8191,22 +8196,22 @@
       <c r="A208" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B208" s="47" t="s">
+      <c r="B208" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C208" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D208" s="47" t="s">
+      <c r="C208" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D208" s="44" t="s">
         <v>666</v>
       </c>
       <c r="E208" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="F208" s="58" t="s">
+      <c r="F208" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="G208" s="58" t="s">
+      <c r="G208" s="55" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8214,35 +8219,35 @@
       <c r="A209" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B209" s="48"/>
-      <c r="C209" s="48"/>
-      <c r="D209" s="48"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="45"/>
+      <c r="D209" s="45"/>
       <c r="E209" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B210" s="47" t="s">
+      <c r="B210" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C210" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D210" s="47" t="s">
+      <c r="C210" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D210" s="44" t="s">
         <v>667</v>
       </c>
       <c r="E210" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="F210" s="47" t="s">
+      <c r="F210" s="44" t="s">
         <v>357</v>
       </c>
-      <c r="G210" s="47" t="s">
+      <c r="G210" s="44" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8250,26 +8255,26 @@
       <c r="A211" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B211" s="48"/>
-      <c r="C211" s="48"/>
-      <c r="D211" s="48"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="45"/>
+      <c r="D211" s="45"/>
       <c r="E211" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F211" s="48"/>
-      <c r="G211" s="48"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="45"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B212" s="47" t="s">
+      <c r="B212" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C212" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D212" s="47" t="s">
+      <c r="C212" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D212" s="44" t="s">
         <v>668</v>
       </c>
       <c r="E212" s="27" t="s">
@@ -8286,9 +8291,9 @@
       <c r="A213" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B213" s="49"/>
-      <c r="C213" s="49"/>
-      <c r="D213" s="49"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="46"/>
+      <c r="D213" s="46"/>
       <c r="E213" s="27" t="s">
         <v>359</v>
       </c>
@@ -8303,9 +8308,9 @@
       <c r="A214" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B214" s="48"/>
-      <c r="C214" s="48"/>
-      <c r="D214" s="48"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="45"/>
+      <c r="D214" s="45"/>
       <c r="E214" s="4" t="s">
         <v>360</v>
       </c>
@@ -8316,13 +8321,13 @@
       <c r="A215" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B215" s="47" t="s">
+      <c r="B215" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C215" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D215" s="47" t="s">
+      <c r="C215" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D215" s="44" t="s">
         <v>669</v>
       </c>
       <c r="E215" s="13" t="s">
@@ -8339,9 +8344,9 @@
       <c r="A216" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B216" s="49"/>
-      <c r="C216" s="49"/>
-      <c r="D216" s="49"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="46"/>
+      <c r="D216" s="46"/>
       <c r="E216" s="13" t="s">
         <v>364</v>
       </c>
@@ -8356,9 +8361,9 @@
       <c r="A217" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="B217" s="48"/>
-      <c r="C217" s="48"/>
-      <c r="D217" s="48"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="45"/>
+      <c r="D217" s="45"/>
       <c r="E217" s="10" t="s">
         <v>365</v>
       </c>
@@ -8369,14 +8374,14 @@
       <c r="A218" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B218" s="47" t="s">
+      <c r="B218" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C218" s="47" t="str">
-        <f t="shared" ref="C208:D227" si="8">IF(B218="SI","SI","")</f>
+      <c r="C218" s="44" t="str">
+        <f t="shared" ref="C218:D218" si="8">IF(B218="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D218" s="47" t="str">
+      <c r="D218" s="44" t="str">
         <f t="shared" si="8"/>
         <v>SI</v>
       </c>
@@ -8394,9 +8399,9 @@
       <c r="A219" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B219" s="48"/>
-      <c r="C219" s="48"/>
-      <c r="D219" s="48"/>
+      <c r="B219" s="45"/>
+      <c r="C219" s="45"/>
+      <c r="D219" s="45"/>
       <c r="E219" s="10" t="s">
         <v>370</v>
       </c>
@@ -8411,13 +8416,13 @@
       <c r="A220" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B220" s="47" t="s">
+      <c r="B220" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C220" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D220" s="47" t="s">
+      <c r="C220" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D220" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E220" s="50" t="s">
@@ -8434,52 +8439,52 @@
       <c r="A221" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B221" s="49"/>
-      <c r="C221" s="49"/>
-      <c r="D221" s="49"/>
-      <c r="E221" s="54"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
+      <c r="D221" s="46"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="G221" s="54"/>
+      <c r="G221" s="51"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B222" s="49"/>
-      <c r="C222" s="49"/>
-      <c r="D222" s="49"/>
-      <c r="E222" s="54"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
+      <c r="D222" s="46"/>
+      <c r="E222" s="51"/>
       <c r="F222" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="G222" s="54"/>
+      <c r="G222" s="51"/>
     </row>
     <row r="223" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B223" s="48"/>
-      <c r="C223" s="48"/>
-      <c r="D223" s="48"/>
-      <c r="E223" s="51"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="45"/>
+      <c r="D223" s="45"/>
+      <c r="E223" s="52"/>
       <c r="F223" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G223" s="51"/>
+      <c r="G223" s="52"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B224" s="47" t="s">
+      <c r="B224" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C224" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D224" s="47" t="s">
+      <c r="C224" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D224" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E224" s="13" t="s">
@@ -8496,9 +8501,9 @@
       <c r="A225" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B225" s="49"/>
-      <c r="C225" s="49"/>
-      <c r="D225" s="49"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="46"/>
       <c r="E225" s="13" t="s">
         <v>377</v>
       </c>
@@ -8513,9 +8518,9 @@
       <c r="A226" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B226" s="49"/>
-      <c r="C226" s="49"/>
-      <c r="D226" s="49"/>
+      <c r="B226" s="46"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="46"/>
       <c r="E226" s="5"/>
       <c r="F226" s="13" t="s">
         <v>380</v>
@@ -8526,9 +8531,9 @@
       <c r="A227" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B227" s="48"/>
-      <c r="C227" s="48"/>
-      <c r="D227" s="48"/>
+      <c r="B227" s="45"/>
+      <c r="C227" s="45"/>
+      <c r="D227" s="45"/>
       <c r="E227" s="12"/>
       <c r="F227" s="10" t="s">
         <v>381</v>
@@ -8539,14 +8544,14 @@
       <c r="A228" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B228" s="47" t="s">
+      <c r="B228" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C228" s="47" t="str">
+      <c r="C228" s="44" t="str">
         <f t="shared" ref="C228:D247" si="9">IF(B228="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D228" s="47" t="str">
+      <c r="D228" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
@@ -8564,9 +8569,9 @@
       <c r="A229" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B229" s="48"/>
-      <c r="C229" s="48"/>
-      <c r="D229" s="48"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="45"/>
+      <c r="D229" s="45"/>
       <c r="E229" s="10" t="s">
         <v>384</v>
       </c>
@@ -8627,14 +8632,14 @@
       <c r="A232" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B232" s="47" t="s">
+      <c r="B232" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C232" s="47" t="str">
+      <c r="C232" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="D232" s="47" t="str">
+      <c r="D232" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
@@ -8652,9 +8657,9 @@
       <c r="A233" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B233" s="48"/>
-      <c r="C233" s="48"/>
-      <c r="D233" s="48"/>
+      <c r="B233" s="45"/>
+      <c r="C233" s="45"/>
+      <c r="D233" s="45"/>
       <c r="E233" s="11" t="s">
         <v>393</v>
       </c>
@@ -8669,13 +8674,13 @@
       <c r="A234" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B234" s="47" t="s">
+      <c r="B234" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C234" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D234" s="47" t="s">
+      <c r="C234" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D234" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E234" s="50" t="s">
@@ -8692,11 +8697,11 @@
       <c r="A235" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B235" s="48"/>
-      <c r="C235" s="48"/>
-      <c r="D235" s="48"/>
-      <c r="E235" s="51"/>
-      <c r="F235" s="51"/>
+      <c r="B235" s="45"/>
+      <c r="C235" s="45"/>
+      <c r="D235" s="45"/>
+      <c r="E235" s="52"/>
+      <c r="F235" s="52"/>
       <c r="G235" s="10" t="s">
         <v>397</v>
       </c>
@@ -8705,13 +8710,13 @@
       <c r="A236" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B236" s="47" t="s">
+      <c r="B236" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C236" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D236" s="47" t="s">
+      <c r="C236" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D236" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E236" s="50" t="s">
@@ -8728,11 +8733,11 @@
       <c r="A237" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B237" s="48"/>
-      <c r="C237" s="48"/>
-      <c r="D237" s="48"/>
-      <c r="E237" s="51"/>
-      <c r="F237" s="51"/>
+      <c r="B237" s="45"/>
+      <c r="C237" s="45"/>
+      <c r="D237" s="45"/>
+      <c r="E237" s="52"/>
+      <c r="F237" s="52"/>
       <c r="G237" s="10" t="s">
         <v>399</v>
       </c>
@@ -8834,14 +8839,14 @@
       <c r="A242" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B242" s="47" t="s">
+      <c r="B242" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C242" s="47" t="str">
+      <c r="C242" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="D242" s="47" t="str">
+      <c r="D242" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
@@ -8859,9 +8864,9 @@
       <c r="A243" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B243" s="48"/>
-      <c r="C243" s="48"/>
-      <c r="D243" s="48"/>
+      <c r="B243" s="45"/>
+      <c r="C243" s="45"/>
+      <c r="D243" s="45"/>
       <c r="E243" s="10" t="s">
         <v>415</v>
       </c>
@@ -8876,13 +8881,13 @@
       <c r="A244" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B244" s="47" t="s">
+      <c r="B244" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C244" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D244" s="47" t="s">
+      <c r="C244" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D244" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E244" s="13" t="s">
@@ -8899,9 +8904,9 @@
       <c r="A245" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B245" s="48"/>
-      <c r="C245" s="48"/>
-      <c r="D245" s="48"/>
+      <c r="B245" s="45"/>
+      <c r="C245" s="45"/>
+      <c r="D245" s="45"/>
       <c r="E245" s="10" t="s">
         <v>419</v>
       </c>
@@ -8939,14 +8944,14 @@
       <c r="A247" t="s">
         <v>424</v>
       </c>
-      <c r="B247" s="47" t="s">
+      <c r="B247" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C247" s="47" t="str">
+      <c r="C247" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
-      <c r="D247" s="47" t="str">
+      <c r="D247" s="44" t="str">
         <f t="shared" si="9"/>
         <v>SI</v>
       </c>
@@ -8964,11 +8969,11 @@
       <c r="A248" t="s">
         <v>424</v>
       </c>
-      <c r="B248" s="48"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="48"/>
-      <c r="E248" s="51"/>
-      <c r="F248" s="51"/>
+      <c r="B248" s="45"/>
+      <c r="C248" s="45"/>
+      <c r="D248" s="45"/>
+      <c r="E248" s="52"/>
+      <c r="F248" s="52"/>
       <c r="G248" s="10" t="s">
         <v>426</v>
       </c>
@@ -8977,13 +8982,13 @@
       <c r="A249" t="s">
         <v>424</v>
       </c>
-      <c r="B249" s="47" t="s">
+      <c r="B249" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C249" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D249" s="47" t="s">
+      <c r="C249" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D249" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E249" s="50" t="s">
@@ -9000,11 +9005,11 @@
       <c r="A250" t="s">
         <v>424</v>
       </c>
-      <c r="B250" s="48"/>
-      <c r="C250" s="48"/>
-      <c r="D250" s="48"/>
-      <c r="E250" s="51"/>
-      <c r="F250" s="51"/>
+      <c r="B250" s="45"/>
+      <c r="C250" s="45"/>
+      <c r="D250" s="45"/>
+      <c r="E250" s="52"/>
+      <c r="F250" s="52"/>
       <c r="G250" s="10" t="s">
         <v>428</v>
       </c>
@@ -9013,13 +9018,13 @@
       <c r="A251" t="s">
         <v>424</v>
       </c>
-      <c r="B251" s="47" t="s">
+      <c r="B251" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C251" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D251" s="47" t="s">
+      <c r="C251" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D251" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E251" s="50" t="s">
@@ -9036,11 +9041,11 @@
       <c r="A252" t="s">
         <v>424</v>
       </c>
-      <c r="B252" s="48"/>
-      <c r="C252" s="48"/>
-      <c r="D252" s="48"/>
-      <c r="E252" s="51"/>
-      <c r="F252" s="51"/>
+      <c r="B252" s="45"/>
+      <c r="C252" s="45"/>
+      <c r="D252" s="45"/>
+      <c r="E252" s="52"/>
+      <c r="F252" s="52"/>
       <c r="G252" s="10" t="s">
         <v>430</v>
       </c>
@@ -9053,7 +9058,7 @@
         <v>5</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f t="shared" ref="C249:D268" si="10">IF(B253="SI","SI","")</f>
+        <f t="shared" ref="C253:D265" si="10">IF(B253="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D253" s="3" t="str">
@@ -9074,13 +9079,13 @@
       <c r="A254" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B254" s="47" t="s">
+      <c r="B254" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C254" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D254" s="47" t="s">
+      <c r="C254" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D254" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E254" s="13" t="s">
@@ -9097,9 +9102,9 @@
       <c r="A255" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B255" s="48"/>
-      <c r="C255" s="48"/>
-      <c r="D255" s="48"/>
+      <c r="B255" s="45"/>
+      <c r="C255" s="45"/>
+      <c r="D255" s="45"/>
       <c r="E255" s="10" t="s">
         <v>434</v>
       </c>
@@ -9114,13 +9119,13 @@
       <c r="A256" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B256" s="47" t="s">
+      <c r="B256" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C256" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D256" s="47" t="s">
+      <c r="C256" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D256" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E256" s="13" t="s">
@@ -9137,9 +9142,9 @@
       <c r="A257" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B257" s="48"/>
-      <c r="C257" s="48"/>
-      <c r="D257" s="48"/>
+      <c r="B257" s="45"/>
+      <c r="C257" s="45"/>
+      <c r="D257" s="45"/>
       <c r="E257" s="10" t="s">
         <v>437</v>
       </c>
@@ -9344,13 +9349,13 @@
       <c r="A266" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B266" s="60" t="s">
+      <c r="B266" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C266" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="D266" s="60" t="s">
+      <c r="C266" s="58" t="s">
+        <v>633</v>
+      </c>
+      <c r="D266" s="58" t="s">
         <v>629</v>
       </c>
       <c r="E266" s="13" t="s">
@@ -9367,9 +9372,9 @@
       <c r="A267" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B267" s="61"/>
-      <c r="C267" s="61"/>
-      <c r="D267" s="61"/>
+      <c r="B267" s="59"/>
+      <c r="C267" s="59"/>
+      <c r="D267" s="59"/>
       <c r="E267" s="10" t="s">
         <v>454</v>
       </c>
@@ -9407,14 +9412,14 @@
       <c r="A269" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B269" s="47" t="s">
+      <c r="B269" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C269" s="47" t="str">
-        <f t="shared" ref="C269:D288" si="11">IF(B269="SI","SI","")</f>
+      <c r="C269" s="44" t="str">
+        <f t="shared" ref="C269:D285" si="11">IF(B269="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D269" s="47" t="str">
+      <c r="D269" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -9424,7 +9429,7 @@
       <c r="F269" s="50" t="s">
         <v>461</v>
       </c>
-      <c r="G269" s="55" t="s">
+      <c r="G269" s="53" t="s">
         <v>462</v>
       </c>
     </row>
@@ -9432,26 +9437,26 @@
       <c r="A270" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B270" s="48"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
+      <c r="B270" s="45"/>
+      <c r="C270" s="45"/>
+      <c r="D270" s="45"/>
       <c r="E270" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F270" s="51"/>
-      <c r="G270" s="57"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="54"/>
     </row>
     <row r="271" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A271" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B271" s="47" t="s">
+      <c r="B271" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C271" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D271" s="47" t="s">
+      <c r="C271" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D271" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E271" s="13" t="s">
@@ -9468,9 +9473,9 @@
       <c r="A272" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B272" s="48"/>
-      <c r="C272" s="48"/>
-      <c r="D272" s="48"/>
+      <c r="B272" s="45"/>
+      <c r="C272" s="45"/>
+      <c r="D272" s="45"/>
       <c r="E272" s="11" t="s">
         <v>464</v>
       </c>
@@ -9485,13 +9490,13 @@
       <c r="A273" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B273" s="47" t="s">
+      <c r="B273" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C273" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D273" s="47" t="s">
+      <c r="C273" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D273" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E273" s="13" t="s">
@@ -9508,9 +9513,9 @@
       <c r="A274" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B274" s="48"/>
-      <c r="C274" s="48"/>
-      <c r="D274" s="48"/>
+      <c r="B274" s="45"/>
+      <c r="C274" s="45"/>
+      <c r="D274" s="45"/>
       <c r="E274" s="11" t="s">
         <v>468</v>
       </c>
@@ -9525,14 +9530,14 @@
       <c r="A275" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B275" s="47" t="s">
+      <c r="B275" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C275" s="47" t="str">
+      <c r="C275" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
-      <c r="D275" s="47" t="str">
+      <c r="D275" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -9550,9 +9555,9 @@
       <c r="A276" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B276" s="48"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
+      <c r="B276" s="45"/>
+      <c r="C276" s="45"/>
+      <c r="D276" s="45"/>
       <c r="E276" s="10" t="s">
         <v>474</v>
       </c>
@@ -9590,13 +9595,13 @@
       <c r="A278" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B278" s="47" t="s">
+      <c r="B278" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C278" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D278" s="47" t="s">
+      <c r="C278" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D278" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E278" s="13" t="s">
@@ -9613,9 +9618,9 @@
       <c r="A279" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B279" s="48"/>
-      <c r="C279" s="48"/>
-      <c r="D279" s="48"/>
+      <c r="B279" s="45"/>
+      <c r="C279" s="45"/>
+      <c r="D279" s="45"/>
       <c r="E279" s="10" t="s">
         <v>480</v>
       </c>
@@ -9630,14 +9635,14 @@
       <c r="A280" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B280" s="47" t="s">
+      <c r="B280" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C280" s="47" t="str">
+      <c r="C280" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
-      <c r="D280" s="47" t="str">
+      <c r="D280" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -9655,9 +9660,9 @@
       <c r="A281" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B281" s="48"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48"/>
+      <c r="B281" s="45"/>
+      <c r="C281" s="45"/>
+      <c r="D281" s="45"/>
       <c r="E281" s="10" t="s">
         <v>483</v>
       </c>
@@ -9695,13 +9700,13 @@
       <c r="A283" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B283" s="47" t="s">
+      <c r="B283" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C283" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D283" s="47" t="s">
+      <c r="C283" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D283" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E283" s="13" t="s">
@@ -9718,9 +9723,9 @@
       <c r="A284" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B284" s="48"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48"/>
+      <c r="B284" s="45"/>
+      <c r="C284" s="45"/>
+      <c r="D284" s="45"/>
       <c r="E284" s="10" t="s">
         <v>487</v>
       </c>
@@ -9735,14 +9740,14 @@
       <c r="A285" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B285" s="47" t="s">
+      <c r="B285" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C285" s="47" t="str">
+      <c r="C285" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
-      <c r="D285" s="47" t="str">
+      <c r="D285" s="44" t="str">
         <f t="shared" si="11"/>
         <v>SI</v>
       </c>
@@ -9760,11 +9765,11 @@
       <c r="A286" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B286" s="48"/>
-      <c r="C286" s="48"/>
-      <c r="D286" s="48"/>
-      <c r="E286" s="51"/>
-      <c r="F286" s="51"/>
+      <c r="B286" s="45"/>
+      <c r="C286" s="45"/>
+      <c r="D286" s="45"/>
+      <c r="E286" s="52"/>
+      <c r="F286" s="52"/>
       <c r="G286" s="10" t="s">
         <v>490</v>
       </c>
@@ -9773,19 +9778,19 @@
       <c r="A287" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B287" s="47" t="s">
+      <c r="B287" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="C287" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D287" s="47" t="s">
+      <c r="C287" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D287" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="E287" s="58" t="s">
+      <c r="E287" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="F287" s="58" t="s">
+      <c r="F287" s="55" t="s">
         <v>492</v>
       </c>
       <c r="G287" s="27" t="s">
@@ -9796,11 +9801,11 @@
       <c r="A288" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B288" s="48"/>
-      <c r="C288" s="48"/>
-      <c r="D288" s="48"/>
-      <c r="E288" s="59"/>
-      <c r="F288" s="59"/>
+      <c r="B288" s="45"/>
+      <c r="C288" s="45"/>
+      <c r="D288" s="45"/>
+      <c r="E288" s="57"/>
+      <c r="F288" s="57"/>
       <c r="G288" s="4" t="s">
         <v>493</v>
       </c>
@@ -9809,13 +9814,13 @@
       <c r="A289" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B289" s="47" t="s">
+      <c r="B289" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C289" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D289" s="47" t="s">
+      <c r="C289" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D289" s="44" t="s">
         <v>670</v>
       </c>
       <c r="E289" s="50" t="s">
@@ -9832,11 +9837,11 @@
       <c r="A290" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B290" s="48"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48"/>
-      <c r="E290" s="51"/>
-      <c r="F290" s="51"/>
+      <c r="B290" s="45"/>
+      <c r="C290" s="45"/>
+      <c r="D290" s="45"/>
+      <c r="E290" s="52"/>
+      <c r="F290" s="52"/>
       <c r="G290" s="10" t="s">
         <v>496</v>
       </c>
@@ -9845,19 +9850,19 @@
       <c r="A291" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B291" s="47" t="s">
+      <c r="B291" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C291" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D291" s="47" t="s">
+      <c r="C291" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D291" s="44" t="s">
         <v>671</v>
       </c>
-      <c r="E291" s="58" t="s">
+      <c r="E291" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="F291" s="58" t="s">
+      <c r="F291" s="55" t="s">
         <v>497</v>
       </c>
       <c r="G291" s="27" t="s">
@@ -9868,11 +9873,11 @@
       <c r="A292" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B292" s="48"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48"/>
-      <c r="E292" s="59"/>
-      <c r="F292" s="59"/>
+      <c r="B292" s="45"/>
+      <c r="C292" s="45"/>
+      <c r="D292" s="45"/>
+      <c r="E292" s="57"/>
+      <c r="F292" s="57"/>
       <c r="G292" s="4" t="s">
         <v>498</v>
       </c>
@@ -9881,19 +9886,19 @@
       <c r="A293" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B293" s="47" t="s">
+      <c r="B293" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C293" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D293" s="47" t="s">
+      <c r="C293" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D293" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="E293" s="58" t="s">
+      <c r="E293" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="F293" s="58" t="s">
+      <c r="F293" s="55" t="s">
         <v>499</v>
       </c>
       <c r="G293" s="27" t="s">
@@ -9904,11 +9909,11 @@
       <c r="A294" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B294" s="48"/>
-      <c r="C294" s="48"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="59"/>
-      <c r="F294" s="59"/>
+      <c r="B294" s="45"/>
+      <c r="C294" s="45"/>
+      <c r="D294" s="45"/>
+      <c r="E294" s="57"/>
+      <c r="F294" s="57"/>
       <c r="G294" s="4" t="s">
         <v>500</v>
       </c>
@@ -9917,19 +9922,19 @@
       <c r="A295" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B295" s="47" t="s">
+      <c r="B295" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C295" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D295" s="47" t="s">
+      <c r="C295" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D295" s="44" t="s">
         <v>643</v>
       </c>
-      <c r="E295" s="58" t="s">
+      <c r="E295" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="F295" s="58" t="s">
+      <c r="F295" s="55" t="s">
         <v>501</v>
       </c>
       <c r="G295" s="27" t="s">
@@ -9940,11 +9945,11 @@
       <c r="A296" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B296" s="48"/>
-      <c r="C296" s="48"/>
-      <c r="D296" s="48"/>
-      <c r="E296" s="59"/>
-      <c r="F296" s="59"/>
+      <c r="B296" s="45"/>
+      <c r="C296" s="45"/>
+      <c r="D296" s="45"/>
+      <c r="E296" s="57"/>
+      <c r="F296" s="57"/>
       <c r="G296" s="4" t="s">
         <v>503</v>
       </c>
@@ -9953,13 +9958,13 @@
       <c r="A297" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B297" s="47" t="s">
+      <c r="B297" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C297" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D297" s="47" t="s">
+      <c r="C297" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D297" s="44" t="s">
         <v>673</v>
       </c>
       <c r="E297" s="50" t="s">
@@ -9976,11 +9981,11 @@
       <c r="A298" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B298" s="48"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="48"/>
-      <c r="E298" s="51"/>
-      <c r="F298" s="51"/>
+      <c r="B298" s="45"/>
+      <c r="C298" s="45"/>
+      <c r="D298" s="45"/>
+      <c r="E298" s="52"/>
+      <c r="F298" s="52"/>
       <c r="G298" s="10" t="s">
         <v>505</v>
       </c>
@@ -9989,14 +9994,14 @@
       <c r="A299" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B299" s="47" t="s">
+      <c r="B299" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C299" s="47" t="str">
-        <f t="shared" ref="C289:D308" si="12">IF(B299="SI","SI","")</f>
+      <c r="C299" s="44" t="str">
+        <f t="shared" ref="C299:D299" si="12">IF(B299="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D299" s="47" t="str">
+      <c r="D299" s="44" t="str">
         <f t="shared" si="12"/>
         <v>SI</v>
       </c>
@@ -10014,43 +10019,43 @@
       <c r="A300" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B300" s="49"/>
-      <c r="C300" s="49"/>
-      <c r="D300" s="49"/>
+      <c r="B300" s="46"/>
+      <c r="C300" s="46"/>
+      <c r="D300" s="46"/>
       <c r="E300" s="13" t="s">
         <v>508</v>
       </c>
       <c r="F300" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G300" s="54"/>
+      <c r="G300" s="51"/>
     </row>
     <row r="301" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B301" s="48"/>
-      <c r="C301" s="48"/>
-      <c r="D301" s="48"/>
+      <c r="B301" s="45"/>
+      <c r="C301" s="45"/>
+      <c r="D301" s="45"/>
       <c r="E301" s="10" t="s">
         <v>509</v>
       </c>
       <c r="F301" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="G301" s="51"/>
+      <c r="G301" s="52"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B302" s="47" t="s">
+      <c r="B302" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C302" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D302" s="47" t="s">
+      <c r="C302" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D302" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E302" s="50" t="s">
@@ -10059,7 +10064,7 @@
       <c r="F302" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="G302" s="55" t="s">
+      <c r="G302" s="53" t="s">
         <v>517</v>
       </c>
     </row>
@@ -10067,48 +10072,48 @@
       <c r="A303" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B303" s="49"/>
-      <c r="C303" s="49"/>
-      <c r="D303" s="49"/>
-      <c r="E303" s="54"/>
+      <c r="B303" s="46"/>
+      <c r="C303" s="46"/>
+      <c r="D303" s="46"/>
+      <c r="E303" s="51"/>
       <c r="F303" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="G303" s="56"/>
+      <c r="G303" s="62"/>
     </row>
     <row r="304" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B304" s="48"/>
-      <c r="C304" s="48"/>
-      <c r="D304" s="48"/>
-      <c r="E304" s="51"/>
+      <c r="B304" s="45"/>
+      <c r="C304" s="45"/>
+      <c r="D304" s="45"/>
+      <c r="E304" s="52"/>
       <c r="F304" s="43" t="s">
         <v>516</v>
       </c>
-      <c r="G304" s="57"/>
+      <c r="G304" s="54"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B305" s="47" t="s">
+      <c r="B305" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C305" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D305" s="47" t="s">
+      <c r="C305" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D305" s="44" t="s">
         <v>674</v>
       </c>
-      <c r="E305" s="58" t="s">
+      <c r="E305" s="55" t="s">
         <v>518</v>
       </c>
       <c r="F305" s="27" t="s">
         <v>518</v>
       </c>
-      <c r="G305" s="47" t="s">
+      <c r="G305" s="44" t="s">
         <v>520</v>
       </c>
     </row>
@@ -10116,26 +10121,26 @@
       <c r="A306" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B306" s="48"/>
-      <c r="C306" s="48"/>
-      <c r="D306" s="48"/>
-      <c r="E306" s="59"/>
+      <c r="B306" s="45"/>
+      <c r="C306" s="45"/>
+      <c r="D306" s="45"/>
+      <c r="E306" s="57"/>
       <c r="F306" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="G306" s="48"/>
+      <c r="G306" s="45"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B307" s="47" t="s">
+      <c r="B307" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C307" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D307" s="47" t="s">
+      <c r="C307" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D307" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E307" s="50" t="s">
@@ -10144,7 +10149,7 @@
       <c r="F307" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="G307" s="52" t="s">
+      <c r="G307" s="60" t="s">
         <v>523</v>
       </c>
     </row>
@@ -10152,27 +10157,27 @@
       <c r="A308" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B308" s="48"/>
-      <c r="C308" s="48"/>
-      <c r="D308" s="48"/>
-      <c r="E308" s="51"/>
+      <c r="B308" s="45"/>
+      <c r="C308" s="45"/>
+      <c r="D308" s="45"/>
+      <c r="E308" s="52"/>
       <c r="F308" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="G308" s="53"/>
+      <c r="G308" s="61"/>
     </row>
     <row r="309" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A309" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B309" s="47" t="s">
+      <c r="B309" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C309" s="47" t="str">
-        <f t="shared" ref="C309:D328" si="13">IF(B309="SI","SI","")</f>
+      <c r="C309" s="44" t="str">
+        <f t="shared" ref="C309:D324" si="13">IF(B309="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D309" s="47" t="str">
+      <c r="D309" s="44" t="str">
         <f t="shared" si="13"/>
         <v>SI</v>
       </c>
@@ -10190,14 +10195,14 @@
       <c r="A310" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B310" s="48"/>
-      <c r="C310" s="48"/>
-      <c r="D310" s="48"/>
+      <c r="B310" s="45"/>
+      <c r="C310" s="45"/>
+      <c r="D310" s="45"/>
       <c r="E310" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="F310" s="51"/>
-      <c r="G310" s="51"/>
+      <c r="F310" s="52"/>
+      <c r="G310" s="52"/>
     </row>
     <row r="311" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="24" t="s">
@@ -10226,13 +10231,13 @@
       <c r="A312" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C312" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D312" s="47" t="s">
+      <c r="C312" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D312" s="44" t="s">
         <v>631</v>
       </c>
       <c r="E312" s="25" t="s">
@@ -10249,9 +10254,9 @@
       <c r="A313" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B313" s="48"/>
-      <c r="C313" s="48"/>
-      <c r="D313" s="48"/>
+      <c r="B313" s="45"/>
+      <c r="C313" s="45"/>
+      <c r="D313" s="45"/>
       <c r="E313" s="11" t="s">
         <v>533</v>
       </c>
@@ -10314,13 +10319,13 @@
       <c r="A316" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B316" s="47" t="s">
+      <c r="B316" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C316" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D316" s="47" t="s">
+      <c r="C316" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D316" s="44" t="s">
         <v>676</v>
       </c>
       <c r="E316" s="27" t="s">
@@ -10337,9 +10342,9 @@
       <c r="A317" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B317" s="49"/>
-      <c r="C317" s="49"/>
-      <c r="D317" s="49"/>
+      <c r="B317" s="46"/>
+      <c r="C317" s="46"/>
+      <c r="D317" s="46"/>
       <c r="E317" s="27" t="s">
         <v>542</v>
       </c>
@@ -10354,9 +10359,9 @@
       <c r="A318" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B318" s="48"/>
-      <c r="C318" s="48"/>
-      <c r="D318" s="48"/>
+      <c r="B318" s="45"/>
+      <c r="C318" s="45"/>
+      <c r="D318" s="45"/>
       <c r="E318" s="4" t="s">
         <v>543</v>
       </c>
@@ -10417,13 +10422,13 @@
       <c r="A321" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B321" s="47" t="s">
+      <c r="B321" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="C321" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D321" s="47" t="s">
+      <c r="C321" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D321" s="44" t="s">
         <v>679</v>
       </c>
       <c r="E321" s="13" t="s">
@@ -10440,9 +10445,9 @@
       <c r="A322" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B322" s="48"/>
-      <c r="C322" s="48"/>
-      <c r="D322" s="48"/>
+      <c r="B322" s="45"/>
+      <c r="C322" s="45"/>
+      <c r="D322" s="45"/>
       <c r="E322" s="10" t="s">
         <v>550</v>
       </c>
@@ -10480,14 +10485,14 @@
       <c r="A324" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B324" s="47" t="s">
+      <c r="B324" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C324" s="47" t="str">
+      <c r="C324" s="44" t="str">
         <f t="shared" si="13"/>
         <v>SI</v>
       </c>
-      <c r="D324" s="47" t="str">
+      <c r="D324" s="44" t="str">
         <f t="shared" si="13"/>
         <v>SI</v>
       </c>
@@ -10505,9 +10510,9 @@
       <c r="A325" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B325" s="49"/>
-      <c r="C325" s="49"/>
-      <c r="D325" s="49"/>
+      <c r="B325" s="46"/>
+      <c r="C325" s="46"/>
+      <c r="D325" s="46"/>
       <c r="E325" s="13" t="s">
         <v>554</v>
       </c>
@@ -10522,9 +10527,9 @@
       <c r="A326" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B326" s="49"/>
-      <c r="C326" s="49"/>
-      <c r="D326" s="49"/>
+      <c r="B326" s="46"/>
+      <c r="C326" s="46"/>
+      <c r="D326" s="46"/>
       <c r="E326" s="13" t="s">
         <v>555</v>
       </c>
@@ -10535,9 +10540,9 @@
       <c r="A327" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B327" s="48"/>
-      <c r="C327" s="48"/>
-      <c r="D327" s="48"/>
+      <c r="B327" s="45"/>
+      <c r="C327" s="45"/>
+      <c r="D327" s="45"/>
       <c r="E327" s="10" t="s">
         <v>556</v>
       </c>
@@ -10548,13 +10553,13 @@
       <c r="A328" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C328" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D328" s="47" t="s">
+      <c r="C328" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D328" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E328" s="13" t="s">
@@ -10571,9 +10576,9 @@
       <c r="A329" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B329" s="49"/>
-      <c r="C329" s="49"/>
-      <c r="D329" s="49"/>
+      <c r="B329" s="46"/>
+      <c r="C329" s="46"/>
+      <c r="D329" s="46"/>
       <c r="E329" s="13" t="s">
         <v>560</v>
       </c>
@@ -10588,9 +10593,9 @@
       <c r="A330" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B330" s="49"/>
-      <c r="C330" s="49"/>
-      <c r="D330" s="49"/>
+      <c r="B330" s="46"/>
+      <c r="C330" s="46"/>
+      <c r="D330" s="46"/>
       <c r="E330" s="13" t="s">
         <v>561</v>
       </c>
@@ -10603,9 +10608,9 @@
       <c r="A331" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B331" s="48"/>
-      <c r="C331" s="48"/>
-      <c r="D331" s="48"/>
+      <c r="B331" s="45"/>
+      <c r="C331" s="45"/>
+      <c r="D331" s="45"/>
       <c r="E331" s="12"/>
       <c r="F331" s="33"/>
       <c r="G331" s="12"/>
@@ -10614,13 +10619,13 @@
       <c r="A332" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B332" s="63" t="s">
+      <c r="B332" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C332" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="D332" s="63" t="s">
+      <c r="C332" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="D332" s="47" t="s">
         <v>631</v>
       </c>
       <c r="E332" s="13" t="s">
@@ -10637,9 +10642,9 @@
       <c r="A333" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B333" s="64"/>
-      <c r="C333" s="64"/>
-      <c r="D333" s="64"/>
+      <c r="B333" s="48"/>
+      <c r="C333" s="48"/>
+      <c r="D333" s="48"/>
       <c r="E333" s="13" t="s">
         <v>567</v>
       </c>
@@ -10654,9 +10659,9 @@
       <c r="A334" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B334" s="64"/>
-      <c r="C334" s="64"/>
-      <c r="D334" s="64"/>
+      <c r="B334" s="48"/>
+      <c r="C334" s="48"/>
+      <c r="D334" s="48"/>
       <c r="E334" s="13" t="s">
         <v>568</v>
       </c>
@@ -10671,9 +10676,9 @@
       <c r="A335" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B335" s="64"/>
-      <c r="C335" s="64"/>
-      <c r="D335" s="64"/>
+      <c r="B335" s="48"/>
+      <c r="C335" s="48"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="13" t="s">
         <v>569</v>
       </c>
@@ -10686,9 +10691,9 @@
       <c r="A336" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B336" s="65"/>
-      <c r="C336" s="65"/>
-      <c r="D336" s="65"/>
+      <c r="B336" s="49"/>
+      <c r="C336" s="49"/>
+      <c r="D336" s="49"/>
       <c r="E336" s="10" t="s">
         <v>570</v>
       </c>
@@ -10699,14 +10704,14 @@
       <c r="A337" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B337" s="63" t="s">
+      <c r="B337" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C337" s="63" t="str">
-        <f t="shared" ref="C332:D351" si="14">IF(B337="SI","SI","")</f>
+      <c r="C337" s="47" t="str">
+        <f t="shared" ref="C337:D337" si="14">IF(B337="SI","SI","")</f>
         <v>SI</v>
       </c>
-      <c r="D337" s="63" t="str">
+      <c r="D337" s="47" t="str">
         <f t="shared" si="14"/>
         <v>SI</v>
       </c>
@@ -10724,9 +10729,9 @@
       <c r="A338" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B338" s="64"/>
-      <c r="C338" s="64"/>
-      <c r="D338" s="64"/>
+      <c r="B338" s="48"/>
+      <c r="C338" s="48"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
       <c r="G338" s="13" t="s">
@@ -10737,9 +10742,9 @@
       <c r="A339" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B339" s="64"/>
-      <c r="C339" s="64"/>
-      <c r="D339" s="64"/>
+      <c r="B339" s="48"/>
+      <c r="C339" s="48"/>
+      <c r="D339" s="48"/>
       <c r="E339" s="13" t="s">
         <v>581</v>
       </c>
@@ -10754,9 +10759,9 @@
       <c r="A340" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B340" s="65"/>
-      <c r="C340" s="65"/>
-      <c r="D340" s="65"/>
+      <c r="B340" s="49"/>
+      <c r="C340" s="49"/>
+      <c r="D340" s="49"/>
       <c r="E340" s="10" t="s">
         <v>582</v>
       </c>
@@ -10767,13 +10772,13 @@
       <c r="A341" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B341" s="47" t="s">
+      <c r="B341" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C341" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D341" s="47" t="s">
+      <c r="C341" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D341" s="44" t="s">
         <v>629</v>
       </c>
       <c r="E341" s="13" t="s">
@@ -10790,9 +10795,9 @@
       <c r="A342" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B342" s="49"/>
-      <c r="C342" s="49"/>
-      <c r="D342" s="49"/>
+      <c r="B342" s="46"/>
+      <c r="C342" s="46"/>
+      <c r="D342" s="46"/>
       <c r="E342" s="13" t="s">
         <v>588</v>
       </c>
@@ -10807,9 +10812,9 @@
       <c r="A343" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B343" s="49"/>
-      <c r="C343" s="49"/>
-      <c r="D343" s="49"/>
+      <c r="B343" s="46"/>
+      <c r="C343" s="46"/>
+      <c r="D343" s="46"/>
       <c r="E343" s="25" t="s">
         <v>589</v>
       </c>
@@ -10822,9 +10827,9 @@
       <c r="A344" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B344" s="49"/>
-      <c r="C344" s="49"/>
-      <c r="D344" s="49"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="46"/>
+      <c r="D344" s="46"/>
       <c r="E344" s="8"/>
       <c r="F344" s="25" t="s">
         <v>589</v>
@@ -10837,9 +10842,9 @@
       <c r="A345" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B345" s="49"/>
-      <c r="C345" s="49"/>
-      <c r="D345" s="49"/>
+      <c r="B345" s="46"/>
+      <c r="C345" s="46"/>
+      <c r="D345" s="46"/>
       <c r="E345" s="13" t="s">
         <v>590</v>
       </c>
@@ -10852,9 +10857,9 @@
       <c r="A346" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B346" s="48"/>
-      <c r="C346" s="48"/>
-      <c r="D346" s="48"/>
+      <c r="B346" s="45"/>
+      <c r="C346" s="45"/>
+      <c r="D346" s="45"/>
       <c r="E346" s="10" t="s">
         <v>591</v>
       </c>
@@ -10867,13 +10872,13 @@
       <c r="A347" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B347" s="47" t="s">
+      <c r="B347" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C347" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D347" s="47" t="s">
+      <c r="C347" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D347" s="44" t="s">
         <v>636</v>
       </c>
       <c r="E347" s="13" t="s">
@@ -10890,9 +10895,9 @@
       <c r="A348" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B348" s="48"/>
-      <c r="C348" s="48"/>
-      <c r="D348" s="48"/>
+      <c r="B348" s="45"/>
+      <c r="C348" s="45"/>
+      <c r="D348" s="45"/>
       <c r="E348" s="10" t="s">
         <v>600</v>
       </c>
@@ -10907,13 +10912,13 @@
       <c r="A349" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B349" s="47" t="s">
+      <c r="B349" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C349" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D349" s="47" t="s">
+      <c r="C349" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D349" s="44" t="s">
         <v>637</v>
       </c>
       <c r="E349" s="27" t="s">
@@ -10922,7 +10927,7 @@
       <c r="F349" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="G349" s="44" t="s">
+      <c r="G349" s="63" t="s">
         <v>611</v>
       </c>
     </row>
@@ -10930,42 +10935,42 @@
       <c r="A350" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B350" s="49"/>
-      <c r="C350" s="49"/>
-      <c r="D350" s="49"/>
+      <c r="B350" s="46"/>
+      <c r="C350" s="46"/>
+      <c r="D350" s="46"/>
       <c r="E350" s="27"/>
       <c r="F350" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="G350" s="45"/>
+      <c r="G350" s="64"/>
     </row>
     <row r="351" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A351" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B351" s="49"/>
-      <c r="C351" s="49"/>
-      <c r="D351" s="49"/>
+      <c r="B351" s="46"/>
+      <c r="C351" s="46"/>
+      <c r="D351" s="46"/>
       <c r="E351" s="27" t="s">
         <v>606</v>
       </c>
       <c r="F351" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="G351" s="45"/>
+      <c r="G351" s="64"/>
     </row>
     <row r="352" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B352" s="48"/>
-      <c r="C352" s="48"/>
-      <c r="D352" s="48"/>
+      <c r="B352" s="45"/>
+      <c r="C352" s="45"/>
+      <c r="D352" s="45"/>
       <c r="E352" s="28"/>
       <c r="F352" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="G352" s="46"/>
+      <c r="G352" s="65"/>
     </row>
     <row r="353" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="24" t="s">
@@ -10975,7 +10980,7 @@
         <v>5</v>
       </c>
       <c r="C353" s="3" t="str">
-        <f t="shared" ref="C353:D372" si="15">IF(B353="SI","SI","")</f>
+        <f t="shared" ref="C353:D356" si="15">IF(B353="SI","SI","")</f>
         <v>SI</v>
       </c>
       <c r="D353" s="3" t="str">
@@ -11090,13 +11095,13 @@
       <c r="A358" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B358" s="47" t="s">
+      <c r="B358" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C358" s="47" t="s">
-        <v>633</v>
-      </c>
-      <c r="D358" s="47" t="s">
+      <c r="C358" s="44" t="s">
+        <v>633</v>
+      </c>
+      <c r="D358" s="44" t="s">
         <v>636</v>
       </c>
       <c r="E358" s="13" t="s">
@@ -11113,9 +11118,9 @@
       <c r="A359" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B359" s="48"/>
-      <c r="C359" s="48"/>
-      <c r="D359" s="48"/>
+      <c r="B359" s="45"/>
+      <c r="C359" s="45"/>
+      <c r="D359" s="45"/>
       <c r="E359" s="10" t="s">
         <v>626</v>
       </c>
@@ -11151,61 +11156,345 @@
     </row>
   </sheetData>
   <mergeCells count="418">
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="C321:C322"/>
-    <mergeCell ref="C324:C327"/>
-    <mergeCell ref="C328:C331"/>
-    <mergeCell ref="C332:C336"/>
-    <mergeCell ref="C337:C340"/>
-    <mergeCell ref="C341:C346"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="C349:C352"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="C224:C227"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C244:C245"/>
-    <mergeCell ref="C167:C172"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="G349:G352"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="B332:B336"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B316:B318"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B324:B327"/>
+    <mergeCell ref="B328:B331"/>
+    <mergeCell ref="D312:D313"/>
+    <mergeCell ref="D316:D318"/>
+    <mergeCell ref="D321:D322"/>
+    <mergeCell ref="D324:D327"/>
+    <mergeCell ref="D328:D331"/>
+    <mergeCell ref="D332:D336"/>
+    <mergeCell ref="D337:D340"/>
+    <mergeCell ref="D341:D346"/>
+    <mergeCell ref="D347:D348"/>
+    <mergeCell ref="D349:D352"/>
+    <mergeCell ref="D358:D359"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="F309:F310"/>
+    <mergeCell ref="G309:G310"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="G302:G304"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="G305:G306"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="D307:D308"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="E297:E298"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="G299:G301"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="F293:F294"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="D299:D301"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="G269:G270"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="D269:D270"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="E251:E252"/>
+    <mergeCell ref="F251:F252"/>
+    <mergeCell ref="B254:B255"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="E247:E248"/>
+    <mergeCell ref="F247:F248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="E249:E250"/>
+    <mergeCell ref="F249:F250"/>
+    <mergeCell ref="D254:D255"/>
+    <mergeCell ref="D256:D257"/>
+    <mergeCell ref="D247:D248"/>
+    <mergeCell ref="D249:D250"/>
+    <mergeCell ref="D251:D252"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C254:C255"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="G220:G223"/>
+    <mergeCell ref="B224:B227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="D224:D227"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="D242:D243"/>
+    <mergeCell ref="D244:D245"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="E220:E223"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="G208:G209"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="D206:D207"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="D193:D196"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="D167:D172"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:F147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="G128:G129"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C79"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -11230,345 +11519,61 @@
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="G128:G129"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:F147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="D156:D157"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="D163:D166"/>
-    <mergeCell ref="D167:D172"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="D193:D196"/>
-    <mergeCell ref="D197:D198"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="E220:E223"/>
-    <mergeCell ref="B206:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="G208:G209"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="D206:D207"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="B244:B245"/>
-    <mergeCell ref="G220:G223"/>
-    <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="D224:D227"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="D242:D243"/>
-    <mergeCell ref="D244:D245"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="E251:E252"/>
-    <mergeCell ref="F251:F252"/>
-    <mergeCell ref="B254:B255"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="E247:E248"/>
-    <mergeCell ref="F247:F248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="E249:E250"/>
-    <mergeCell ref="F249:F250"/>
-    <mergeCell ref="D254:D255"/>
-    <mergeCell ref="D256:D257"/>
-    <mergeCell ref="D247:D248"/>
-    <mergeCell ref="D249:D250"/>
-    <mergeCell ref="D251:D252"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C254:C255"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="G269:G270"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="D269:D270"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="D278:D279"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="E291:E292"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="E297:E298"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="B299:B301"/>
-    <mergeCell ref="G299:G301"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="E293:E294"/>
-    <mergeCell ref="F293:F294"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="E295:E296"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="D299:D301"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="D295:D296"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="E307:E308"/>
-    <mergeCell ref="G307:G308"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="F309:F310"/>
-    <mergeCell ref="G309:G310"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="G302:G304"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="G305:G306"/>
-    <mergeCell ref="D309:D310"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="D307:D308"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="G349:G352"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="B332:B336"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B346"/>
-    <mergeCell ref="B347:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="B312:B313"/>
-    <mergeCell ref="B316:B318"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B324:B327"/>
-    <mergeCell ref="B328:B331"/>
-    <mergeCell ref="D312:D313"/>
-    <mergeCell ref="D316:D318"/>
-    <mergeCell ref="D321:D322"/>
-    <mergeCell ref="D324:D327"/>
-    <mergeCell ref="D328:D331"/>
-    <mergeCell ref="D332:D336"/>
-    <mergeCell ref="D337:D340"/>
-    <mergeCell ref="D341:D346"/>
-    <mergeCell ref="D347:D348"/>
-    <mergeCell ref="D349:D352"/>
-    <mergeCell ref="D358:D359"/>
-    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C167:C172"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="C224:C227"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="C244:C245"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="C324:C327"/>
+    <mergeCell ref="C328:C331"/>
+    <mergeCell ref="C332:C336"/>
+    <mergeCell ref="C337:C340"/>
+    <mergeCell ref="C341:C346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="C349:C352"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
